--- a/pro.xlsx
+++ b/pro.xlsx
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
